--- a/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,3%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,04%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,46; 6,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 7,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 8,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 10,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,86; 69,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 38,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,7; 42,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,33; 47,92</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,09%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 1,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 1,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,84; 21,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,63; 56,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,67; 21,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,6; 26,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,58; 213,28</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,01%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,33; 0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 0,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 2,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,05; 36,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,05; 4,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,99; 25,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,73; 36,55</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,6%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 3,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 3,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 3,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 13,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,46; 62,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,72; 36,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 35,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,69; 115,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>28,17%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 10,39</t>
+          <t>2,63; 10,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 47,92</t>
+          <t>9,95; 48,21</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>85,1%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 21,02</t>
+          <t>-1,12; 35,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 213,28</t>
+          <t>-11,32; 419,44</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,72</t>
+          <t>-2,48; 2,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 36,55</t>
+          <t>-24,27; 37,28</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>62,27%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 13,88</t>
+          <t>1,65; 25,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 115,42</t>
+          <t>13,36; 217,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 6,92</t>
+          <t>1,6; 6,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,13</t>
+          <t>-0,11; 6,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 8,03</t>
+          <t>-0,49; 7,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,36</t>
+          <t>2,76; 10,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 69,44</t>
+          <t>12,16; 68,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 38,2</t>
+          <t>-0,62; 35,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 42,68</t>
+          <t>-2,07; 43,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 48,21</t>
+          <t>10,86; 50,12</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 1,53</t>
+          <t>-1,09; 1,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,03</t>
+          <t>-2,43; 0,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,5</t>
+          <t>-1,73; 1,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 35,64</t>
+          <t>-1,22; 31,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 56,94</t>
+          <t>-28,29; 55,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 21,82</t>
+          <t>-34,85; 18,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 26,38</t>
+          <t>-24,16; 23,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 419,44</t>
+          <t>-12,45; 357,24</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 0,77</t>
+          <t>-3,09; 0,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 0,05</t>
+          <t>-6,68; -0,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,74</t>
+          <t>-4,48; 0,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,78</t>
+          <t>-2,75; 2,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-69,05; 36,81</t>
+          <t>-69,54; 38,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-74,05; 4,05</t>
+          <t>-73,11; 2,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,99; 25,37</t>
+          <t>-70,48; 20,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 37,28</t>
+          <t>-25,94; 34,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,3</t>
+          <t>0,92; 3,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,53</t>
+          <t>0,5; 3,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,12</t>
+          <t>0,14; 3,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 25,25</t>
+          <t>1,52; 21,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 62,23</t>
+          <t>14,64; 63,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 36,34</t>
+          <t>4,55; 38,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 35,54</t>
+          <t>0,82; 34,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 217,23</t>
+          <t>12,64; 206,69</t>
         </is>
       </c>
     </row>
